--- a/显微镜结果处理模板.xlsx
+++ b/显微镜结果处理模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12624" tabRatio="795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12624" tabRatio="795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一细胞周期汇总" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
   <si>
     <t>该位置的细胞标记(LABEL表示)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -71,10 +72,6 @@
   <si>
     <t>第一个周期最大GFP增长率
 dRnr3-gfp/dt[max]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dRnr3-gfp/dt 第一个周期序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +184,19 @@
     <t>菌株类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>高于Threshold的平均值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于Threshold的平均值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过分布得到的
+Threshold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +205,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -324,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,34 +403,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -441,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,22 +456,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,6 +488,15 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1931,11 +1925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-102751232"/>
-        <c:axId val="-102747968"/>
+        <c:axId val="1894212512"/>
+        <c:axId val="1894217952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-102751232"/>
+        <c:axId val="1894212512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -1982,7 +1976,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2049,12 +2042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102747968"/>
+        <c:crossAx val="1894217952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-102747968"/>
+        <c:axId val="1894217952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2068,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2142,7 +2134,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102751232"/>
+        <c:crossAx val="1894212512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2277,7 +2269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2479,11 +2470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-102750144"/>
-        <c:axId val="-102744160"/>
+        <c:axId val="1894222848"/>
+        <c:axId val="1894214144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-102750144"/>
+        <c:axId val="1894222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -2530,7 +2521,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2597,12 +2587,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102744160"/>
+        <c:crossAx val="1894214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-102744160"/>
+        <c:axId val="1894214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2638,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2715,7 +2704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102750144"/>
+        <c:crossAx val="1894222848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4250,7 +4239,7 @@
   </sheetPr>
   <dimension ref="B1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
@@ -4264,50 +4253,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6"/>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="6">
         <v>23</v>
@@ -4329,12 +4318,12 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -4356,714 +4345,714 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="23">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="22">
         <v>0</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="27">
         <v>161.0858260869565</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="27">
         <v>183.136</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>186.28736363636364</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>197.19660000000005</v>
       </c>
       <c r="K8" s="6">
         <v>172.82210000000001</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="28">
         <v>189.52023076923075</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="23">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="22">
         <v>5</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="27">
         <v>165.26178260869568</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>184.97737499999999</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>197.88254545454541</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>197.64753333333331</v>
       </c>
       <c r="K9" s="6">
         <v>173.77399999999997</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="28">
         <v>192.15042307692303</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>10</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>171.76321739130429</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>189.322</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <v>211.24581818181815</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>203.93033333333329</v>
       </c>
       <c r="K10" s="6">
         <v>175.99940000000001</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="28">
         <v>197.61988461538465</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>15</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>179.32256521739129</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <v>198.10487500000005</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <v>227.49963636363637</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>212.39960000000002</v>
       </c>
       <c r="K11" s="6">
         <v>181.48249999999999</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="28">
         <v>206.97346153846152</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>20</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>187.9534347826087</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>210.23362499999996</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>249.67018181818182</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>222.5026</v>
       </c>
       <c r="K12" s="6">
         <v>189.77959999999999</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="28">
         <v>223.93303846153842</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>25</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>197.03408695652169</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <v>230.33112500000001</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <v>271.59554545454552</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>241.11580000000004</v>
       </c>
       <c r="K13" s="6">
         <v>200.47460000000001</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="28">
         <v>246.5656153846154</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>30</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>207.67991304347831</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="27">
         <v>253.55175</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <v>295.3484545454545</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>253.4357333333333</v>
       </c>
       <c r="K14" s="6">
         <v>218.34949999999998</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="28">
         <v>275.38349999999997</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>35</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <v>218.23082608695648</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
         <v>276.38062500000001</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <v>320.24081818181816</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>271.28739999999999</v>
       </c>
       <c r="K15" s="6">
         <v>233.51990000000001</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="28">
         <v>304.29573076923077</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>40</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <v>229.59760869565224</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <v>299.32950000000005</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <v>347.2168181818181</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>293.70046666666661</v>
       </c>
       <c r="K16" s="6">
         <v>250.43639999999999</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="28">
         <v>335.47196153846147</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>45</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <v>236.74108695652166</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="27">
         <v>319.70362499999999</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <v>361.71254545454542</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>319.95153333333332</v>
       </c>
       <c r="K17" s="6">
         <v>274.06679999999994</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="28">
         <v>367.85434615384617</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>50</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <v>246.49599999999998</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <v>331.5865</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>378.73736363636363</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <v>345.54313333333329</v>
       </c>
       <c r="K18" s="6">
         <v>298.48310000000004</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="28">
         <v>404.77503846153843</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>55</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <v>251.05421739130435</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
         <v>350.09662500000002</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>399.4847272727273</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>369.78566666666671</v>
       </c>
       <c r="K19" s="6">
         <v>320.06590000000006</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="28">
         <v>447.89684615384613</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>60</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="27">
         <v>255.99604347826084</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="27">
         <v>356.73950000000002</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>430.15872727272728</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>392.14540000000011</v>
       </c>
       <c r="K20" s="6">
         <v>340.98610000000002</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="28">
         <v>480.35884615384617</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>65</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <v>267.82663636363634</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="27">
         <v>370.39087499999994</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>431.65345454545457</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>413.73493333333329</v>
       </c>
       <c r="K21" s="6">
         <v>358.00910000000005</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="28">
         <v>510.52215384615374</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>70</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="27">
         <v>271.71109090909084</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <v>373.19062499999995</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>446.40290909090913</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>433.0992</v>
       </c>
       <c r="K22" s="6">
         <v>373.32679999999993</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="28">
         <v>534.799076923077</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>75</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="27">
         <v>263.69076190476198</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="27">
         <v>377.60250000000008</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>451.5752727272727</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>450.09546666666671</v>
       </c>
       <c r="K23" s="6">
         <v>385.64030000000002</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="28">
         <v>552.73369230769231</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>80</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="27">
         <v>266.23973684210529</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <v>382.35512499999999</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>455.4672727272727</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>462.96659999999991</v>
       </c>
       <c r="K24" s="6">
         <v>400.32879999999994</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="28">
         <v>575.61696153846162</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>85</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="27">
         <v>271.12888888888892</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="27">
         <v>392.33412499999997</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>455.88754545454543</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>475.45239999999995</v>
       </c>
       <c r="K25" s="6">
         <v>408.9615</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="28">
         <v>593.48007692307681</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>90</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="27">
         <v>266.40547058823529</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="27">
         <v>392.20974999999999</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>466.27809090909085</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>485.84893333333332</v>
       </c>
       <c r="K26" s="6">
         <v>418.14159999999993</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="28">
         <v>599.18373076923069</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>95</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="27">
         <v>276.97616666666664</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="27">
         <v>396.61562500000002</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>452.78239999999994</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>496.54366666666658</v>
       </c>
       <c r="K27" s="6">
         <v>421.84539999999998</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="28">
         <v>611.15792307692311</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>100</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="29">
+      <c r="H28" s="27">
         <v>412.42742857142855</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>455.34288888888892</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>507.64286666666663</v>
       </c>
       <c r="K28" s="6">
         <v>418.16719999999998</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="28">
         <v>616.87353846153849</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>105</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="29">
+      <c r="H29" s="27">
         <v>452.01939999999996</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>461.17099999999999</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>515.83160000000009</v>
       </c>
       <c r="K29" s="6">
         <v>415.57679999999999</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="28">
         <v>615.70484615384623</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>110</v>
       </c>
       <c r="G30" s="15"/>
-      <c r="H30" s="29">
+      <c r="H30" s="27">
         <v>451.13780000000008</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>461.16977777777782</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>529.62086666666664</v>
       </c>
       <c r="K30" s="6">
         <v>410.30589999999995</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="28">
         <v>631.98004000000014</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>115</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="H31" s="29">
+      <c r="H31" s="27">
         <v>471.43474999999989</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>460.45255555555559</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>541.46366666666677</v>
       </c>
       <c r="K31" s="6">
         <v>409.68250000000006</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="28">
         <v>638.85900000000004</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>120</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="I32" s="22">
+      <c r="I32" s="21">
         <v>497.71083333333331</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>546.74120000000016</v>
       </c>
       <c r="K32" s="6">
         <v>387.38555555555558</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="28">
         <v>646.54139130434783</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>125</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>543.95960000000002</v>
       </c>
       <c r="K33" s="6">
         <v>388.14566666666673</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="28">
         <v>666.63394999999991</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>130</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>545.54499999999996</v>
       </c>
       <c r="K34" s="6">
         <v>370.26940000000002</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="28">
         <v>683.41090000000008</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>135</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <v>540.86106666666672</v>
       </c>
       <c r="K35" s="6">
         <v>378.97900000000004</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="28">
         <v>762.9684666666667</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>140</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>531.9052307692308</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="28">
         <v>789.0612142857143</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>145</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <v>535.39700000000005</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="28">
         <v>787.89314285714295</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>150</v>
       </c>
       <c r="G38" s="15"/>
@@ -5071,7 +5060,7 @@
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>155</v>
       </c>
       <c r="G39" s="15"/>
@@ -5079,7 +5068,7 @@
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>160</v>
       </c>
       <c r="G40" s="15"/>
@@ -5087,7 +5076,7 @@
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>165</v>
       </c>
       <c r="G41" s="15"/>
@@ -5095,7 +5084,7 @@
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>170</v>
       </c>
       <c r="G42" s="15"/>
@@ -5103,7 +5092,7 @@
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>175</v>
       </c>
       <c r="G43" s="15"/>
@@ -5111,7 +5100,7 @@
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>180</v>
       </c>
       <c r="G44" s="15"/>
@@ -5119,7 +5108,7 @@
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>185</v>
       </c>
       <c r="G45" s="15"/>
@@ -5127,7 +5116,7 @@
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>190</v>
       </c>
       <c r="G46" s="15"/>
@@ -5135,7 +5124,7 @@
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>195</v>
       </c>
       <c r="G47" s="15"/>
@@ -5143,7 +5132,7 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>200</v>
       </c>
       <c r="G48" s="15"/>
@@ -5151,7 +5140,7 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>205</v>
       </c>
       <c r="G49" s="15"/>
@@ -5159,7 +5148,7 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>210</v>
       </c>
       <c r="G50" s="15"/>
@@ -5167,7 +5156,7 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>215</v>
       </c>
       <c r="G51" s="15"/>
@@ -5175,65 +5164,65 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>220</v>
       </c>
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="35" t="s">
+      <c r="H55" s="36"/>
+      <c r="I55" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="J55" s="32"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="23">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="22">
         <v>0</v>
       </c>
       <c r="G56" s="15">
@@ -5244,11 +5233,11 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="23">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="22">
         <v>6</v>
       </c>
       <c r="G57" s="15">
@@ -5258,7 +5247,7 @@
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>10</v>
       </c>
       <c r="G58" s="15">
@@ -5294,67 +5283,67 @@
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F64" s="23"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="B71" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
       <c r="F75">
         <v>1</v>
       </c>
@@ -5602,373 +5591,373 @@
   <sheetData>
     <row r="2" spans="2:97" ht="45" x14ac:dyDescent="0.6">
       <c r="B2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="36">
+        <v>24</v>
+      </c>
+      <c r="C2" s="37">
         <v>53</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <v>55</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37">
         <v>56</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37">
         <v>59</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36">
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37">
         <v>60</v>
       </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36">
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37">
         <v>64</v>
       </c>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="36">
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="37">
         <v>66</v>
       </c>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36">
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37">
         <v>70</v>
       </c>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36">
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37">
         <v>72</v>
       </c>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36">
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="37">
         <v>73</v>
       </c>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="36"/>
-      <c r="CS2" s="36"/>
+      <c r="CP2" s="37"/>
+      <c r="CQ2" s="37"/>
+      <c r="CR2" s="37"/>
+      <c r="CS2" s="37"/>
     </row>
     <row r="3" spans="2:97" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38">
         <v>2</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38">
         <v>3</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38">
         <v>2</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37">
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38">
         <v>2</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37" t="s">
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37">
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38">
         <v>2</v>
       </c>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37" t="s">
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37">
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38">
         <v>2</v>
       </c>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37" t="s">
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37">
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38">
         <v>2</v>
       </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38">
         <v>3</v>
       </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38">
         <v>4</v>
       </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37" t="s">
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37">
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38">
         <v>2</v>
       </c>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37">
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="38">
         <v>3</v>
       </c>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37" t="s">
+      <c r="BQ3" s="38"/>
+      <c r="BR3" s="38"/>
+      <c r="BS3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="37">
+      <c r="BT3" s="38"/>
+      <c r="BU3" s="38"/>
+      <c r="BV3" s="38"/>
+      <c r="BW3" s="38"/>
+      <c r="BX3" s="38">
         <v>2</v>
       </c>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37">
+      <c r="BY3" s="38"/>
+      <c r="BZ3" s="38"/>
+      <c r="CA3" s="38">
         <v>3</v>
       </c>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37"/>
-      <c r="CD3" s="37" t="s">
+      <c r="CB3" s="38"/>
+      <c r="CC3" s="38"/>
+      <c r="CD3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37">
+      <c r="CE3" s="38"/>
+      <c r="CF3" s="38"/>
+      <c r="CG3" s="38"/>
+      <c r="CH3" s="38"/>
+      <c r="CI3" s="38">
         <v>2</v>
       </c>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="37">
+      <c r="CJ3" s="38"/>
+      <c r="CK3" s="38"/>
+      <c r="CL3" s="38">
         <v>3</v>
       </c>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37" t="s">
+      <c r="CM3" s="38"/>
+      <c r="CN3" s="38"/>
+      <c r="CO3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
+      <c r="CP3" s="38"/>
+      <c r="CQ3" s="38"/>
+      <c r="CR3" s="38"/>
+      <c r="CS3" s="38"/>
     </row>
     <row r="4" spans="2:97" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
     </row>
     <row r="5" spans="2:97" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -6438,7 +6427,7 @@
       <c r="BV8" s="6"/>
       <c r="BW8" s="8"/>
       <c r="BY8" s="6"/>
-      <c r="BZ8" s="31"/>
+      <c r="BZ8" s="29"/>
       <c r="CB8" s="10"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="5"/>
@@ -7925,6 +7914,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="CO3:CS3"/>
+    <mergeCell ref="CO4:CS4"/>
+    <mergeCell ref="BS2:CC2"/>
+    <mergeCell ref="BS3:BW3"/>
+    <mergeCell ref="BS4:BW4"/>
+    <mergeCell ref="CD2:CN2"/>
+    <mergeCell ref="CD3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO2:CS2"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AT4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BH2:BR2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BH4:BL4"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="AT2:BD2"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="AT3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="CI4:CK4"/>
     <mergeCell ref="CL4:CN4"/>
@@ -7941,50 +7974,6 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="N2:U2"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="AD2:AK2"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT2:BD2"/>
-    <mergeCell ref="AT3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="AT4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BH2:BR2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BH4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="CO3:CS3"/>
-    <mergeCell ref="CO4:CS4"/>
-    <mergeCell ref="BS2:CC2"/>
-    <mergeCell ref="BS3:BW3"/>
-    <mergeCell ref="BS4:BW4"/>
-    <mergeCell ref="CD2:CN2"/>
-    <mergeCell ref="CD3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO2:CS2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7996,14 +7985,17 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A3:AT293"/>
+  <dimension ref="A3:AZ294"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -8019,12 +8011,12 @@
   <sheetData>
     <row r="3" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -8067,16 +8059,16 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="6"/>
       <c r="G4" s="13">
         <v>20150408</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -8116,12 +8108,12 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -8153,10 +8145,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
@@ -8277,12 +8269,12 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -9305,15 +9297,15 @@
     </row>
     <row r="106" spans="1:46" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
-      <c r="B106" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
+      <c r="B106" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="28" t="s">
-        <v>28</v>
+      <c r="G106" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -9353,19 +9345,19 @@
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="22"/>
+      <c r="G107" s="21"/>
       <c r="H107" s="13">
         <v>20150310</v>
       </c>
-      <c r="I107" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" s="21" t="e">
+      <c r="I107" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="20" t="e">
         <f>AVERAGE(H108:R108)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9390,10 +9382,10 @@
       <c r="AC107" s="6"/>
       <c r="AE107" s="14"/>
       <c r="AF107" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG107" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="AG107" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="AH107" s="6" t="e">
         <f>AVERAGE(AF108:AT108)</f>
@@ -9411,14 +9403,14 @@
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="G108" s="21"/>
       <c r="S108" s="14"/>
       <c r="T108" s="14"/>
       <c r="U108" s="14"/>
@@ -9450,14 +9442,14 @@
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="22"/>
+      <c r="G109" s="21"/>
       <c r="H109" s="6">
         <v>1</v>
       </c>
@@ -9578,14 +9570,14 @@
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
@@ -9596,7 +9588,7 @@
       <c r="F111" s="6">
         <v>0</v>
       </c>
-      <c r="G111" s="22" t="e">
+      <c r="G111" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9610,7 +9602,7 @@
       <c r="F112" s="6">
         <v>5</v>
       </c>
-      <c r="G112" s="22" t="e">
+      <c r="G112" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9624,7 +9616,7 @@
       <c r="F113" s="6">
         <v>10</v>
       </c>
-      <c r="G113" s="22" t="e">
+      <c r="G113" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9638,7 +9630,7 @@
       <c r="F114" s="6">
         <v>15</v>
       </c>
-      <c r="G114" s="22" t="e">
+      <c r="G114" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9652,7 +9644,7 @@
       <c r="F115" s="6">
         <v>20</v>
       </c>
-      <c r="G115" s="22" t="e">
+      <c r="G115" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9666,7 +9658,7 @@
       <c r="F116" s="6">
         <v>25</v>
       </c>
-      <c r="G116" s="22" t="e">
+      <c r="G116" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9680,7 +9672,7 @@
       <c r="F117" s="6">
         <v>30</v>
       </c>
-      <c r="G117" s="22" t="e">
+      <c r="G117" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9694,7 +9686,7 @@
       <c r="F118" s="6">
         <v>35</v>
       </c>
-      <c r="G118" s="22" t="e">
+      <c r="G118" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9708,7 +9700,7 @@
       <c r="F119" s="6">
         <v>40</v>
       </c>
-      <c r="G119" s="22" t="e">
+      <c r="G119" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9722,7 +9714,7 @@
       <c r="F120" s="6">
         <v>45</v>
       </c>
-      <c r="G120" s="22" t="e">
+      <c r="G120" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9736,7 +9728,7 @@
       <c r="F121" s="6">
         <v>50</v>
       </c>
-      <c r="G121" s="22" t="e">
+      <c r="G121" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9750,7 +9742,7 @@
       <c r="F122" s="6">
         <v>55</v>
       </c>
-      <c r="G122" s="22" t="e">
+      <c r="G122" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9764,7 +9756,7 @@
       <c r="F123" s="6">
         <v>60</v>
       </c>
-      <c r="G123" s="22" t="e">
+      <c r="G123" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9778,7 +9770,7 @@
       <c r="F124" s="6">
         <v>65</v>
       </c>
-      <c r="G124" s="22" t="e">
+      <c r="G124" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9792,7 +9784,7 @@
       <c r="F125" s="6">
         <v>70</v>
       </c>
-      <c r="G125" s="22" t="e">
+      <c r="G125" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9806,7 +9798,7 @@
       <c r="F126" s="6">
         <v>75</v>
       </c>
-      <c r="G126" s="22" t="e">
+      <c r="G126" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9820,7 +9812,7 @@
       <c r="F127" s="6">
         <v>80</v>
       </c>
-      <c r="G127" s="22" t="e">
+      <c r="G127" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9834,7 +9826,7 @@
       <c r="F128" s="6">
         <v>85</v>
       </c>
-      <c r="G128" s="22" t="e">
+      <c r="G128" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9848,7 +9840,7 @@
       <c r="F129" s="6">
         <v>90</v>
       </c>
-      <c r="G129" s="22" t="e">
+      <c r="G129" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9862,7 +9854,7 @@
       <c r="F130" s="6">
         <v>95</v>
       </c>
-      <c r="G130" s="22" t="e">
+      <c r="G130" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9876,7 +9868,7 @@
       <c r="F131" s="6">
         <v>100</v>
       </c>
-      <c r="G131" s="22" t="e">
+      <c r="G131" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9890,7 +9882,7 @@
       <c r="F132" s="6">
         <v>105</v>
       </c>
-      <c r="G132" s="22" t="e">
+      <c r="G132" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9904,7 +9896,7 @@
       <c r="F133" s="6">
         <v>110</v>
       </c>
-      <c r="G133" s="22" t="e">
+      <c r="G133" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9918,7 +9910,7 @@
       <c r="F134" s="6">
         <v>115</v>
       </c>
-      <c r="G134" s="22" t="e">
+      <c r="G134" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9932,7 +9924,7 @@
       <c r="F135" s="6">
         <v>120</v>
       </c>
-      <c r="G135" s="22" t="e">
+      <c r="G135" s="21" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -9946,7 +9938,7 @@
       <c r="F136" s="6">
         <v>125</v>
       </c>
-      <c r="G136" s="22"/>
+      <c r="G136" s="21"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
@@ -9957,7 +9949,7 @@
       <c r="F137" s="6">
         <v>130</v>
       </c>
-      <c r="G137" s="22"/>
+      <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
@@ -9968,7 +9960,7 @@
       <c r="F138" s="6">
         <v>135</v>
       </c>
-      <c r="G138" s="22"/>
+      <c r="G138" s="21"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
@@ -9978,7 +9970,7 @@
       <c r="F139" s="6">
         <v>140</v>
       </c>
-      <c r="G139" s="22"/>
+      <c r="G139" s="21"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
@@ -9988,7 +9980,7 @@
       <c r="F140" s="6">
         <v>145</v>
       </c>
-      <c r="G140" s="22"/>
+      <c r="G140" s="21"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
@@ -10026,28 +10018,28 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:44" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:52" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
       <c r="F145" s="6"/>
       <c r="G145" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
@@ -10087,12 +10079,12 @@
       <c r="AQ146" s="6"/>
       <c r="AR146" s="6"/>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
       <c r="F147" s="6"/>
       <c r="G147" s="13">
         <v>20150206</v>
@@ -10134,14 +10126,14 @@
       <c r="AP147" s="6"/>
       <c r="AQ147" s="6"/>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
       <c r="F148" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="6"/>
@@ -10182,12 +10174,12 @@
       <c r="AQ148" s="6"/>
       <c r="AR148" s="6"/>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
       <c r="F149" s="6" t="s">
         <v>8</v>
       </c>
@@ -10306,14 +10298,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
@@ -10354,104 +10346,289 @@
       <c r="AQ150" s="17"/>
       <c r="AR150" s="17"/>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6">
+    <row r="151" spans="1:52" s="6" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15">
+        <f>MAX(H167:H188)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="I151" s="15">
+        <f>MAX(I159:I177)</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="15">
+        <f>MAX(J166:J187)</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="15">
+        <f>MAX(K166:K187)</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="15">
+        <f>MAX(L157:L178)</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="15">
+        <f>MAX(M160:M181)</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="15">
+        <f>MAX(N164:N183)</f>
+        <v>0</v>
+      </c>
+      <c r="O151" s="15">
+        <f>MAX(O174:O192)</f>
+        <v>0</v>
+      </c>
+      <c r="P151" s="15">
+        <f>MAX(P163:P190)</f>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="15">
+        <f>MAX(Q164:Q188)</f>
+        <v>0</v>
+      </c>
+      <c r="R151" s="15">
+        <f>MAX(R174:R194)</f>
+        <v>0</v>
+      </c>
+      <c r="S151" s="15">
+        <f>MAX(S155:S177)</f>
+        <v>0</v>
+      </c>
+      <c r="T151" s="15">
+        <f>MAX(T166:T193)</f>
+        <v>0</v>
+      </c>
+      <c r="U151" s="15">
+        <f>MAX(U169:U196)</f>
+        <v>0</v>
+      </c>
+      <c r="V151" s="15">
+        <f>MAX(V154:V177)</f>
+        <v>0</v>
+      </c>
+      <c r="W151" s="15">
+        <f>MAX(W153:W172)</f>
+        <v>0</v>
+      </c>
+      <c r="X151" s="15">
+        <f>MAX(X161:X180)</f>
+        <v>0</v>
+      </c>
+      <c r="Y151" s="15">
+        <f>MAX(Y155:Y173)</f>
+        <v>0</v>
+      </c>
+      <c r="Z151" s="15">
+        <f>MAX(Z177:Z195)</f>
+        <v>0</v>
+      </c>
+      <c r="AA151" s="15">
+        <f>MAX(AA169:AA188)</f>
+        <v>0</v>
+      </c>
+      <c r="AB151" s="15">
+        <f>MAX(AB161:AB181)</f>
+        <v>0</v>
+      </c>
+      <c r="AC151" s="15">
+        <f>MAX(AC152:AC171)</f>
+        <v>0</v>
+      </c>
+      <c r="AD151" s="15">
+        <f>MAX(AD165:AD190)</f>
+        <v>0</v>
+      </c>
+      <c r="AE151" s="15">
+        <f>MAX(AE163:AE189)</f>
+        <v>0</v>
+      </c>
+      <c r="AF151" s="15">
+        <f>MAX(AF170:AF194)</f>
+        <v>0</v>
+      </c>
+      <c r="AG151" s="15">
+        <f>MAX(AG169:AG199)</f>
+        <v>0</v>
+      </c>
+      <c r="AH151" s="15">
+        <f>MAX(AH175:AH198)</f>
+        <v>0</v>
+      </c>
+      <c r="AI151" s="15">
+        <f>MAX(AI154:AI172)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="15">
+        <f>MAX(AJ170:AJ199)</f>
+        <v>0</v>
+      </c>
+      <c r="AK151" s="15">
+        <f>MAX(AK171:AK184)</f>
+        <v>0</v>
+      </c>
+      <c r="AL151" s="15">
+        <f>MAX(AL156:AL176)</f>
+        <v>0</v>
+      </c>
+      <c r="AM151" s="15">
+        <f>MAX(AM169:AM193)</f>
+        <v>0</v>
+      </c>
+      <c r="AN151" s="15">
+        <f>MAX(AN170:AN190)</f>
+        <v>0</v>
+      </c>
+      <c r="AO151" s="15">
+        <f>MAX(AO164:AO185)</f>
+        <v>0</v>
+      </c>
+      <c r="AP151" s="15">
+        <f>MAX(AP156:AP177)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="15">
+        <f>MAX(AQ165:AQ182)</f>
+        <v>0</v>
+      </c>
+      <c r="AR151" s="15">
+        <f>MAX(AR169:AR187)</f>
+        <v>0</v>
+      </c>
+      <c r="AS151" s="15">
+        <f>MAX(AS153:AS171)</f>
+        <v>0</v>
+      </c>
+      <c r="AT151" s="15">
+        <f>MAX(AT160:AT186)</f>
+        <v>0</v>
+      </c>
+      <c r="AU151" s="15">
+        <f>MAX(AU171:AU190)</f>
+        <v>0</v>
+      </c>
+      <c r="AV151" s="15">
+        <f>MAX(AV162:AV189)</f>
+        <v>0</v>
+      </c>
+      <c r="AW151" s="15">
+        <f>MAX(AW156:AW182)</f>
+        <v>0</v>
+      </c>
+      <c r="AX151" s="15">
+        <f>MAX(AX182:AX210)</f>
+        <v>0</v>
+      </c>
+      <c r="AY151" s="15">
+        <f>MAX(AY176:AY200)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ151" s="15">
+        <f>MAX(AZ152:AZ173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -10461,7 +10638,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,7 +10648,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -10481,7 +10658,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -10491,7 +10668,7 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -10501,7 +10678,7 @@
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,7 +10688,7 @@
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -10521,7 +10698,7 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -10531,7 +10708,7 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -10541,7 +10718,7 @@
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -10551,7 +10728,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -10561,7 +10738,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,7 +10748,7 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -10581,7 +10758,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -10591,7 +10768,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -10601,7 +10778,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -10611,7 +10788,7 @@
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -10621,7 +10798,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -10631,7 +10808,7 @@
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -10641,7 +10818,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -10651,7 +10828,7 @@
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -10661,7 +10838,7 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -10671,7 +10848,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -10681,7 +10858,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -10691,7 +10868,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -10701,7 +10878,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -10711,7 +10888,7 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -10721,7 +10898,7 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -10731,7 +10908,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -10741,7 +10918,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,7 +10928,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -10761,7 +10938,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -10771,7 +10948,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -10781,7 +10958,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -10791,7 +10968,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -10801,7 +10978,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -10811,7 +10988,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -10821,7 +10998,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -10831,7 +11008,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -10841,7 +11018,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -10851,7 +11028,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -10861,7 +11038,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -10871,7 +11048,7 @@
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -10881,7 +11058,7 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,7 +11068,7 @@
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -10901,7 +11078,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -10911,7 +11088,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10921,7 +11098,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -10931,7 +11108,7 @@
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10941,7 +11118,7 @@
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -10951,7 +11128,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -10961,7 +11138,7 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -10971,7 +11148,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10981,7 +11158,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -10991,7 +11168,7 @@
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -11001,7 +11178,7 @@
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -11011,7 +11188,7 @@
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -11021,7 +11198,7 @@
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -11031,7 +11208,7 @@
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -11041,7 +11218,7 @@
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -11051,7 +11228,7 @@
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,7 +11238,7 @@
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -11071,7 +11248,7 @@
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -11081,7 +11258,7 @@
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -11091,7 +11268,7 @@
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
@@ -11101,7 +11278,7 @@
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
@@ -11111,7 +11288,7 @@
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
@@ -11121,7 +11298,7 @@
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
@@ -11131,7 +11308,7 @@
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
@@ -11141,7 +11318,7 @@
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.25">
@@ -11151,7 +11328,7 @@
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.25">
@@ -11161,7 +11338,7 @@
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.25">
@@ -11171,7 +11348,7 @@
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.25">
@@ -11181,7 +11358,7 @@
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.25">
@@ -11191,7 +11368,7 @@
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.25">
@@ -11201,7 +11378,7 @@
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.25">
@@ -11210,45 +11387,9 @@
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
-      <c r="H236" s="6"/>
-      <c r="I236" s="6"/>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-      <c r="M236" s="6"/>
-      <c r="N236" s="6"/>
-      <c r="O236" s="6"/>
-      <c r="P236" s="6"/>
-      <c r="Q236" s="6"/>
-      <c r="R236" s="6"/>
-      <c r="S236" s="6"/>
-      <c r="T236" s="6"/>
-      <c r="U236" s="6"/>
-      <c r="V236" s="6"/>
-      <c r="W236" s="6"/>
-      <c r="X236" s="6"/>
-      <c r="Y236" s="6"/>
-      <c r="Z236" s="6"/>
-      <c r="AA236" s="6"/>
-      <c r="AB236" s="6"/>
-      <c r="AC236" s="6"/>
-      <c r="AD236" s="6"/>
-      <c r="AE236" s="6"/>
-      <c r="AF236" s="6"/>
-      <c r="AG236" s="6"/>
-      <c r="AH236" s="6"/>
-      <c r="AI236" s="6"/>
-      <c r="AJ236" s="6"/>
-      <c r="AK236" s="6"/>
-      <c r="AL236" s="6"/>
-      <c r="AM236" s="6"/>
-      <c r="AN236" s="6"/>
-      <c r="AO236" s="6"/>
-      <c r="AP236" s="6"/>
-      <c r="AQ236" s="6"/>
-      <c r="AR236" s="6"/>
+      <c r="F236" s="6">
+        <v>420</v>
+      </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
@@ -11296,444 +11437,59 @@
       <c r="AQ237" s="6"/>
       <c r="AR237" s="6"/>
     </row>
-    <row r="238" spans="1:44" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
-      <c r="F238" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B239" s="33"/>
-      <c r="C239" s="33"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="33"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="33"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="33"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="33"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-    </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-    </row>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="6"/>
+      <c r="Y238" s="6"/>
+      <c r="Z238" s="6"/>
+      <c r="AA238" s="6"/>
+      <c r="AB238" s="6"/>
+      <c r="AC238" s="6"/>
+      <c r="AD238" s="6"/>
+      <c r="AE238" s="6"/>
+      <c r="AF238" s="6"/>
+      <c r="AG238" s="6"/>
+      <c r="AH238" s="6"/>
+      <c r="AI238" s="6"/>
+      <c r="AJ238" s="6"/>
+      <c r="AK238" s="6"/>
+      <c r="AL238" s="6"/>
+      <c r="AM238" s="6"/>
+      <c r="AN238" s="6"/>
+      <c r="AO238" s="6"/>
+      <c r="AP238" s="6"/>
+      <c r="AQ238" s="6"/>
+      <c r="AR238" s="6"/>
+    </row>
+    <row r="239" spans="1:44" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="6" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
@@ -11743,49 +11499,12 @@
       <c r="F282" s="6"/>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
-      <c r="L283" s="6"/>
-      <c r="M283" s="6"/>
-      <c r="N283" s="6"/>
-      <c r="O283" s="6"/>
-      <c r="P283" s="6"/>
-      <c r="Q283" s="6"/>
-      <c r="R283" s="6"/>
-      <c r="S283" s="6"/>
-      <c r="T283" s="6"/>
-      <c r="U283" s="6"/>
-      <c r="V283" s="6"/>
-      <c r="W283" s="6"/>
-      <c r="X283" s="6"/>
-      <c r="Y283" s="6"/>
-      <c r="Z283" s="6"/>
-      <c r="AA283" s="6"/>
-      <c r="AB283" s="6"/>
-      <c r="AC283" s="6"/>
-      <c r="AD283" s="6"/>
-      <c r="AE283" s="6"/>
-      <c r="AF283" s="6"/>
-      <c r="AG283" s="6"/>
-      <c r="AH283" s="6"/>
-      <c r="AI283" s="6"/>
-      <c r="AJ283" s="6"/>
-      <c r="AK283" s="6"/>
-      <c r="AL283" s="6"/>
-      <c r="AM283" s="6"/>
-      <c r="AN283" s="6"/>
-      <c r="AO283" s="6"/>
-      <c r="AP283" s="6"/>
-      <c r="AQ283" s="6"/>
-      <c r="AR283" s="6"/>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B284" s="6"/>
@@ -12237,11 +11956,55 @@
       <c r="AQ293" s="6"/>
       <c r="AR293" s="6"/>
     </row>
+    <row r="294" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="6"/>
+      <c r="L294" s="6"/>
+      <c r="M294" s="6"/>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+      <c r="Q294" s="6"/>
+      <c r="R294" s="6"/>
+      <c r="S294" s="6"/>
+      <c r="T294" s="6"/>
+      <c r="U294" s="6"/>
+      <c r="V294" s="6"/>
+      <c r="W294" s="6"/>
+      <c r="X294" s="6"/>
+      <c r="Y294" s="6"/>
+      <c r="Z294" s="6"/>
+      <c r="AA294" s="6"/>
+      <c r="AB294" s="6"/>
+      <c r="AC294" s="6"/>
+      <c r="AD294" s="6"/>
+      <c r="AE294" s="6"/>
+      <c r="AF294" s="6"/>
+      <c r="AG294" s="6"/>
+      <c r="AH294" s="6"/>
+      <c r="AI294" s="6"/>
+      <c r="AJ294" s="6"/>
+      <c r="AK294" s="6"/>
+      <c r="AL294" s="6"/>
+      <c r="AM294" s="6"/>
+      <c r="AN294" s="6"/>
+      <c r="AO294" s="6"/>
+      <c r="AP294" s="6"/>
+      <c r="AQ294" s="6"/>
+      <c r="AR294" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:E7"/>
     <mergeCell ref="B145:E149"/>
-    <mergeCell ref="A239:D243"/>
     <mergeCell ref="B106:E110"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
